--- a/SupplyDemand.xlsx
+++ b/SupplyDemand.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="42640" windowHeight="22700" tabRatio="500"/>
+    <workbookView xWindow="1940" yWindow="840" windowWidth="42640" windowHeight="22700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Supply and Demand: Cups of Coffee</t>
   </si>
@@ -41,13 +41,16 @@
     <t>Y-Intercept</t>
   </si>
   <si>
-    <t>Demand Schedule</t>
+    <t>Price</t>
   </si>
   <si>
-    <t>Supply Schedule</t>
+    <t>Units / $:</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Qty Demanded</t>
+  </si>
+  <si>
+    <t>Qty Supplied</t>
   </si>
 </sst>
 </file>
@@ -82,12 +85,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -114,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -131,33 +140,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
-    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
-    <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +228,1137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Coffee</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Supply and Demand</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qty Demanded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>899.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>799.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.0000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.99999999999987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.22044604925031E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qty Supplied</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>499.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>599.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>799.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>899.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2107430976"/>
+        <c:axId val="-2107258288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2107430976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2107258288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2107258288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2107430976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9983</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450323</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84963</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,184 +1624,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="B1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="229" zoomScaleNormal="229" zoomScalePageLayoutView="229" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:N9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="2:21" ht="20" x14ac:dyDescent="0.25">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="4">
+        <f>F5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" ref="C8:C18" si="0">(B8-$F$4)*$I$3*$E$4</f>
+        <v>1200</v>
+      </c>
+      <c r="D8" s="6">
+        <f>(B8-$F$5)*$I$3*$E$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <f>B8+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>1099.9999999999998</v>
+      </c>
+      <c r="D9" s="6">
+        <f>(B9-$F$5)*$I$3*$E$5</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <f t="shared" ref="B10:B21" si="1">B9+0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="D10" s="6">
+        <f>(B10-$F$5)*$I$3*$E$5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>899.99999999999989</v>
+      </c>
+      <c r="D11" s="6">
+        <f>(B11-$F$5)*$I$3*$E$5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>799.99999999999989</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D20" si="2">(B12-$F$5)*$I$3*$E$5</f>
+        <v>399.99999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>499.99999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="2"/>
+        <v>599.99999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="2"/>
+        <v>799.99999999999977</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>300.00000000000006</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="2"/>
+        <v>899.99999999999989</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <f>B17+0.1</f>
+        <v>1.2</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>199.99999999999994</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
+      <c r="C19" s="13">
+        <f>(B19-$F$4)*$I$3*$E$4</f>
+        <v>99.999999999999872</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.4</v>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="C20" s="13">
+        <f>(B20-$F$4)*$I$3*$E$4</f>
+        <v>-2.2204460492503131E-13</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="2"/>
+        <v>1200.0000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <f>D5</f>
-        <v>0.4</v>
-      </c>
-      <c r="C7" s="7">
-        <f>B7+0.1</f>
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="7">
-        <f>C7+0.1</f>
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" ref="E7:M7" si="0">D7+0.1</f>
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H7" s="7">
-        <f>G7+0.1</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="L7" s="7">
-        <f>K7+0.1</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="M7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f>(B7-$D$5)*1000*$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f>(C7-$D$5)*1000*$C$5</f>
-        <v>99.999999999999972</v>
-      </c>
-      <c r="D9">
-        <f>(D7-$D$5)*1000*$C$5</f>
-        <v>199.99999999999994</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9:N9" si="1">(E7-$D$5)*1000*$C$5</f>
-        <v>299.99999999999994</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>399.99999999999989</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>499.99999999999989</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>599.99999999999989</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>699.99999999999989</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>799.99999999999989</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>1200.0000000000002</v>
-      </c>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>